--- a/elecciones/estudioCIS3415/DATOS/tablafrecResultado.xlsx
+++ b/elecciones/estudioCIS3415/DATOS/tablafrecResultado.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="prefpte" r:id="rId3" sheetId="1"/>
+    <sheet name="prefpte2" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>first.line</t>
   </si>
@@ -342,4 +343,245 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2631.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2576.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>72.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1625.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8798.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>